--- a/verfy_excel_配置化2/output.xlsx
+++ b/verfy_excel_配置化2/output.xlsx
@@ -508,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:AA25"/>
+  <dimension ref="B2:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
@@ -740,1097 +740,827 @@
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>item_1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>1004</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>10.4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>-51</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>-5.02</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>119</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="3" t="n">
         <v>4.33</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>2484</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="3" t="n">
         <v>1116</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5" s="3" t="n">
         <v>946</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5" s="3" t="n">
         <v>4546</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" s="3" t="n">
         <v>452.79</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5" s="3" t="n">
         <v>34.56</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" s="3" t="n">
         <v>96.26000000000001</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5" s="3" t="n">
         <v>-23.57</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5" s="3" t="n">
         <v>3.22</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5" s="3" t="n">
         <v>47.21</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5" s="3" t="n">
         <v>9.970000000000001</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5" s="3" t="n">
         <v>12.19</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5" s="3" t="n">
         <v>44.52</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5" s="3" t="n">
         <v>39.49</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5" s="3" t="n">
         <v>96.2</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5" s="3" t="n">
         <v>278.36</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5" s="3" t="n">
         <v>-6.2</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>item_2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>3658</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>63.25</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>-52</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>2.59</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="3" t="n">
         <v>-17.43</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="3" t="n">
         <v>1215</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6" s="3" t="n">
         <v>1995</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6" s="3" t="n">
         <v>3910</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" s="3" t="n">
         <v>106.89</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6" s="3" t="n">
         <v>15.42</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" s="3" t="n">
         <v>94.77</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6" s="3" t="n">
         <v>20.29</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6" s="3" t="n">
         <v>-2.28</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6" s="3" t="n">
         <v>-43.41</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6" s="3" t="n">
         <v>6.16</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6" s="3" t="n">
         <v>17.57</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6" s="3" t="n">
         <v>13.38</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6" s="3" t="n">
         <v>48.06</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6" s="3" t="n">
         <v>79.01000000000001</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6" s="3" t="n">
         <v>512.39</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6" s="3" t="n">
         <v>-9.25</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>item_3</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>1611</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>87.7</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>4.13</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>-5.25</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>503</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="3" t="n">
         <v>1870</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7" s="3" t="n">
         <v>1854</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7" s="3" t="n">
         <v>4227</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" s="3" t="n">
         <v>262.38</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7" s="3" t="n">
         <v>60.21</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" s="3" t="n">
         <v>86.69</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7" s="3" t="n">
         <v>-28.6</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7" s="3" t="n">
         <v>7.58</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7" s="3" t="n">
         <v>88.48999999999999</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7" s="3" t="n">
         <v>-12.73</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7" s="3" t="n">
         <v>46.79</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7" s="3" t="n">
         <v>20.95</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7" s="3" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7" s="3" t="n">
         <v>76.59999999999999</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7" s="3" t="n">
         <v>127.22</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7" s="3" t="n">
         <v>14.05</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>item_4</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>2107</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>50.34</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
         <v>2.81</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="3" t="n">
         <v>-6.84</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="3" t="n">
         <v>2681</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="3" t="n">
         <v>2725</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8" s="3" t="n">
         <v>1381</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" s="3" t="n">
         <v>6787</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" s="3" t="n">
         <v>322.12</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8" s="3" t="n">
         <v>82.42</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" s="3" t="n">
         <v>38.88</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8" s="3" t="n">
         <v>-36.75</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8" s="3" t="n">
         <v>-5.09</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8" s="3" t="n">
         <v>12.97</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8" s="3" t="n">
         <v>-5.68</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8" s="3" t="n">
         <v>14.19</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8" s="3" t="n">
         <v>13.16</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8" s="3" t="n">
         <v>40.28</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8" s="3" t="n">
         <v>67.63</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8" s="3" t="n">
         <v>82.06</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8" s="3" t="n">
         <v>-7.58</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>item_5</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>1416</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>88.64</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>5.17</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>119</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="3" t="n">
         <v>19.83</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="3" t="n">
         <v>2675</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="3" t="n">
         <v>1445</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9" s="3" t="n">
         <v>1612</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" s="3" t="n">
         <v>5732</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" s="3" t="n">
         <v>404.8</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9" s="3" t="n">
         <v>83.16</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9" s="3" t="n">
         <v>61.39</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="3" t="n">
         <v>-24.7</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="3" t="n">
         <v>8.69</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="3" t="n">
         <v>47.63</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="3" t="n">
         <v>-5.65</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9" s="3" t="n">
         <v>46.67</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9" s="3" t="n">
         <v>42.27</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9" s="3" t="n">
         <v>42.59</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9" s="3" t="n">
         <v>131.53</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9" s="3" t="n">
         <v>158.16</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9" s="3" t="n">
         <v>-11.47</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>item_6</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>4166</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>57.97</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>-67</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>5.07</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="3" t="n">
         <v>5.26</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="3" t="n">
         <v>572</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="3" t="n">
         <v>1521</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10" s="3" t="n">
         <v>2361</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10" s="3" t="n">
         <v>4454</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" s="3" t="n">
         <v>106.91</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10" s="3" t="n">
         <v>82.84999999999999</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10" s="3" t="n">
         <v>66.65000000000001</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="3" t="n">
         <v>40.18</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="3" t="n">
         <v>-8.27</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="3" t="n">
         <v>74.8</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="3" t="n">
         <v>-17.43</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10" s="3" t="n">
         <v>5.3</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10" s="3" t="n">
         <v>41.8</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10" s="3" t="n">
         <v>19.52</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10" s="3" t="n">
         <v>66.61999999999999</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10" s="3" t="n">
         <v>80.41</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10" s="3" t="n">
         <v>-1</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10" s="3" t="n">
         <v>12.45</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>item_7</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>3319</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="3" t="n">
         <v>35.21</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="3" t="n">
         <v>1.04</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="3" t="n">
         <v>179</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="3" t="n">
         <v>-4.37</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="3" t="n">
         <v>2271</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11" s="3" t="n">
         <v>1606</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11" s="3" t="n">
         <v>923</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11" s="3" t="n">
         <v>4800</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" s="3" t="n">
         <v>144.62</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11" s="3" t="n">
         <v>54.28</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11" s="3" t="n">
         <v>18.97</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="3" t="n">
         <v>25.5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="3" t="n">
         <v>7.66</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="3" t="n">
         <v>29.95</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="3" t="n">
         <v>-4.65</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11" s="3" t="n">
         <v>13.9</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11" s="3" t="n">
         <v>5.06</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11" s="3" t="n">
         <v>22.73</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11" s="3" t="n">
         <v>41.69</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11" s="3" t="n">
         <v>76.81</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11" s="3" t="n">
         <v>-12.64</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>item_8</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>2826</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="3" t="n">
         <v>11.64</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="3" t="n">
         <v>5.88</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="3" t="n">
         <v>-71</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="3" t="n">
         <v>-9.44</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12" s="3" t="n">
         <v>708</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12" s="3" t="n">
         <v>829</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12" s="3" t="n">
         <v>973</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12" s="3" t="n">
         <v>2510</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" s="3" t="n">
         <v>88.81999999999999</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12" s="3" t="n">
         <v>83.18000000000001</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12" s="3" t="n">
         <v>78.52</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12" s="3" t="n">
         <v>7.17</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12" s="3" t="n">
         <v>5.2</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12" s="3" t="n">
         <v>-83.93000000000001</v>
       </c>
-      <c r="S12" t="n">
+      <c r="S12" s="3" t="n">
         <v>-3.88</v>
       </c>
-      <c r="T12" t="n">
+      <c r="T12" s="3" t="n">
         <v>31.39</v>
       </c>
-      <c r="U12" t="n">
+      <c r="U12" s="3" t="n">
         <v>35.62</v>
       </c>
-      <c r="V12" t="n">
+      <c r="V12" s="3" t="n">
         <v>25.25</v>
       </c>
-      <c r="W12" t="n">
+      <c r="W12" s="3" t="n">
         <v>92.25999999999999</v>
       </c>
-      <c r="X12" t="n">
+      <c r="X12" s="3" t="n">
         <v>110.92</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Y12" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="Z12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AA12" s="3" t="n">
         <v>-8.66</v>
       </c>
     </row>
     <row r="13">
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>item_9</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>3377</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="3" t="n">
         <v>70.48</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="3" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="3" t="n">
         <v>-50</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="3" t="n">
         <v>-18.79</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13" s="3" t="n">
         <v>1060</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13" s="3" t="n">
         <v>2879</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13" s="3" t="n">
         <v>1341</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13" s="3" t="n">
         <v>5280</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" s="3" t="n">
         <v>156.35</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13" s="3" t="n">
         <v>64.87</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13" s="3" t="n">
         <v>68.05</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13" s="3" t="n">
         <v>-47.49</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13" s="3" t="n">
         <v>-2.29</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13" s="3" t="n">
         <v>93.31</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S13" s="3" t="n">
         <v>17.77</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T13" s="3" t="n">
         <v>48.06</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U13" s="3" t="n">
         <v>21.13</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V13" s="3" t="n">
         <v>36.81</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W13" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X13" s="3" t="n">
         <v>163.4</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y13" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z13" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA13" s="3" t="n">
         <v>-3.31</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>item_10</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
         <v>4901</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="3" t="n">
         <v>90.23999999999999</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="3" t="n">
         <v>-53</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="3" t="n">
         <v>3.53</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="3" t="n">
         <v>-176</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="3" t="n">
         <v>-16.82</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" s="3" t="n">
         <v>1175</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14" s="3" t="n">
         <v>543</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14" s="3" t="n">
         <v>1905</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14" s="3" t="n">
         <v>3623</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" s="3" t="n">
         <v>73.92</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14" s="3" t="n">
         <v>12.13</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14" s="3" t="n">
         <v>51.81</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14" s="3" t="n">
         <v>41.59</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14" s="3" t="n">
         <v>3.06</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14" s="3" t="n">
         <v>14.96</v>
       </c>
-      <c r="S14" t="n">
+      <c r="S14" s="3" t="n">
         <v>-4.86</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T14" s="3" t="n">
         <v>35.04</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U14" s="3" t="n">
         <v>23.15</v>
       </c>
-      <c r="V14" t="n">
+      <c r="V14" s="3" t="n">
         <v>24.94</v>
       </c>
-      <c r="W14" t="n">
+      <c r="W14" s="3" t="n">
         <v>83.13</v>
       </c>
-      <c r="X14" t="n">
+      <c r="X14" s="3" t="n">
         <v>685.33</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Y14" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA14" s="3" t="n">
         <v>-3.21</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>item_1</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
-      <c r="H15" s="3" t="n"/>
-      <c r="I15" s="3" t="n"/>
-      <c r="J15" s="3" t="n"/>
-      <c r="K15" s="3" t="n"/>
-      <c r="L15" s="3" t="n"/>
-      <c r="M15" s="3" t="n"/>
-      <c r="N15" s="3" t="n"/>
-      <c r="O15" s="3" t="n"/>
-      <c r="P15" s="3" t="n"/>
-      <c r="Q15" s="3" t="n"/>
-      <c r="R15" s="3" t="n"/>
-      <c r="S15" s="3" t="n"/>
-      <c r="T15" s="3" t="n"/>
-      <c r="U15" s="3" t="n"/>
-      <c r="V15" s="3" t="n"/>
-      <c r="W15" s="3" t="n"/>
-      <c r="X15" s="3" t="n"/>
-      <c r="Y15" s="3" t="n"/>
-      <c r="Z15" s="3" t="n"/>
-      <c r="AA15" s="3" t="n"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>item_2</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-      <c r="I16" s="3" t="n"/>
-      <c r="J16" s="3" t="n"/>
-      <c r="K16" s="3" t="n"/>
-      <c r="L16" s="3" t="n"/>
-      <c r="M16" s="3" t="n"/>
-      <c r="N16" s="3" t="n"/>
-      <c r="O16" s="3" t="n"/>
-      <c r="P16" s="3" t="n"/>
-      <c r="Q16" s="3" t="n"/>
-      <c r="R16" s="3" t="n"/>
-      <c r="S16" s="3" t="n"/>
-      <c r="T16" s="3" t="n"/>
-      <c r="U16" s="3" t="n"/>
-      <c r="V16" s="3" t="n"/>
-      <c r="W16" s="3" t="n"/>
-      <c r="X16" s="3" t="n"/>
-      <c r="Y16" s="3" t="n"/>
-      <c r="Z16" s="3" t="n"/>
-      <c r="AA16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>item_3</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
-      <c r="H17" s="3" t="n"/>
-      <c r="I17" s="3" t="n"/>
-      <c r="J17" s="3" t="n"/>
-      <c r="K17" s="3" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="N17" s="3" t="n"/>
-      <c r="O17" s="3" t="n"/>
-      <c r="P17" s="3" t="n"/>
-      <c r="Q17" s="3" t="n"/>
-      <c r="R17" s="3" t="n"/>
-      <c r="S17" s="3" t="n"/>
-      <c r="T17" s="3" t="n"/>
-      <c r="U17" s="3" t="n"/>
-      <c r="V17" s="3" t="n"/>
-      <c r="W17" s="3" t="n"/>
-      <c r="X17" s="3" t="n"/>
-      <c r="Y17" s="3" t="n"/>
-      <c r="Z17" s="3" t="n"/>
-      <c r="AA17" s="3" t="n"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>item_4</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
-      <c r="V18" s="3" t="n"/>
-      <c r="W18" s="3" t="n"/>
-      <c r="X18" s="3" t="n"/>
-      <c r="Y18" s="3" t="n"/>
-      <c r="Z18" s="3" t="n"/>
-      <c r="AA18" s="3" t="n"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>item_5</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="3" t="n"/>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
-      <c r="H19" s="3" t="n"/>
-      <c r="I19" s="3" t="n"/>
-      <c r="J19" s="3" t="n"/>
-      <c r="K19" s="3" t="n"/>
-      <c r="L19" s="3" t="n"/>
-      <c r="M19" s="3" t="n"/>
-      <c r="N19" s="3" t="n"/>
-      <c r="O19" s="3" t="n"/>
-      <c r="P19" s="3" t="n"/>
-      <c r="Q19" s="3" t="n"/>
-      <c r="R19" s="3" t="n"/>
-      <c r="S19" s="3" t="n"/>
-      <c r="T19" s="3" t="n"/>
-      <c r="U19" s="3" t="n"/>
-      <c r="V19" s="3" t="n"/>
-      <c r="W19" s="3" t="n"/>
-      <c r="X19" s="3" t="n"/>
-      <c r="Y19" s="3" t="n"/>
-      <c r="Z19" s="3" t="n"/>
-      <c r="AA19" s="3" t="n"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>item_6</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="3" t="n"/>
-      <c r="F20" s="3" t="n"/>
-      <c r="G20" s="3" t="n"/>
-      <c r="H20" s="3" t="n"/>
-      <c r="I20" s="3" t="n"/>
-      <c r="J20" s="3" t="n"/>
-      <c r="K20" s="3" t="n"/>
-      <c r="L20" s="3" t="n"/>
-      <c r="M20" s="3" t="n"/>
-      <c r="N20" s="3" t="n"/>
-      <c r="O20" s="3" t="n"/>
-      <c r="P20" s="3" t="n"/>
-      <c r="Q20" s="3" t="n"/>
-      <c r="R20" s="3" t="n"/>
-      <c r="S20" s="3" t="n"/>
-      <c r="T20" s="3" t="n"/>
-      <c r="U20" s="3" t="n"/>
-      <c r="V20" s="3" t="n"/>
-      <c r="W20" s="3" t="n"/>
-      <c r="X20" s="3" t="n"/>
-      <c r="Y20" s="3" t="n"/>
-      <c r="Z20" s="3" t="n"/>
-      <c r="AA20" s="3" t="n"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>item_7</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="3" t="n"/>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
-      <c r="H21" s="3" t="n"/>
-      <c r="I21" s="3" t="n"/>
-      <c r="J21" s="3" t="n"/>
-      <c r="K21" s="3" t="n"/>
-      <c r="L21" s="3" t="n"/>
-      <c r="M21" s="3" t="n"/>
-      <c r="N21" s="3" t="n"/>
-      <c r="O21" s="3" t="n"/>
-      <c r="P21" s="3" t="n"/>
-      <c r="Q21" s="3" t="n"/>
-      <c r="R21" s="3" t="n"/>
-      <c r="S21" s="3" t="n"/>
-      <c r="T21" s="3" t="n"/>
-      <c r="U21" s="3" t="n"/>
-      <c r="V21" s="3" t="n"/>
-      <c r="W21" s="3" t="n"/>
-      <c r="X21" s="3" t="n"/>
-      <c r="Y21" s="3" t="n"/>
-      <c r="Z21" s="3" t="n"/>
-      <c r="AA21" s="3" t="n"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>item_8</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
-      <c r="H22" s="3" t="n"/>
-      <c r="I22" s="3" t="n"/>
-      <c r="J22" s="3" t="n"/>
-      <c r="K22" s="3" t="n"/>
-      <c r="L22" s="3" t="n"/>
-      <c r="M22" s="3" t="n"/>
-      <c r="N22" s="3" t="n"/>
-      <c r="O22" s="3" t="n"/>
-      <c r="P22" s="3" t="n"/>
-      <c r="Q22" s="3" t="n"/>
-      <c r="R22" s="3" t="n"/>
-      <c r="S22" s="3" t="n"/>
-      <c r="T22" s="3" t="n"/>
-      <c r="U22" s="3" t="n"/>
-      <c r="V22" s="3" t="n"/>
-      <c r="W22" s="3" t="n"/>
-      <c r="X22" s="3" t="n"/>
-      <c r="Y22" s="3" t="n"/>
-      <c r="Z22" s="3" t="n"/>
-      <c r="AA22" s="3" t="n"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>item_9</t>
-        </is>
-      </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
-      <c r="H23" s="3" t="n"/>
-      <c r="I23" s="3" t="n"/>
-      <c r="J23" s="3" t="n"/>
-      <c r="K23" s="3" t="n"/>
-      <c r="L23" s="3" t="n"/>
-      <c r="M23" s="3" t="n"/>
-      <c r="N23" s="3" t="n"/>
-      <c r="O23" s="3" t="n"/>
-      <c r="P23" s="3" t="n"/>
-      <c r="Q23" s="3" t="n"/>
-      <c r="R23" s="3" t="n"/>
-      <c r="S23" s="3" t="n"/>
-      <c r="T23" s="3" t="n"/>
-      <c r="U23" s="3" t="n"/>
-      <c r="V23" s="3" t="n"/>
-      <c r="W23" s="3" t="n"/>
-      <c r="X23" s="3" t="n"/>
-      <c r="Y23" s="3" t="n"/>
-      <c r="Z23" s="3" t="n"/>
-      <c r="AA23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>item_10</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
-      <c r="G24" s="3" t="n"/>
-      <c r="H24" s="3" t="n"/>
-      <c r="I24" s="3" t="n"/>
-      <c r="J24" s="3" t="n"/>
-      <c r="K24" s="3" t="n"/>
-      <c r="L24" s="3" t="n"/>
-      <c r="M24" s="3" t="n"/>
-      <c r="N24" s="3" t="n"/>
-      <c r="O24" s="3" t="n"/>
-      <c r="P24" s="3" t="n"/>
-      <c r="Q24" s="3" t="n"/>
-      <c r="R24" s="3" t="n"/>
-      <c r="S24" s="3" t="n"/>
-      <c r="T24" s="3" t="n"/>
-      <c r="U24" s="3" t="n"/>
-      <c r="V24" s="3" t="n"/>
-      <c r="W24" s="3" t="n"/>
-      <c r="X24" s="3" t="n"/>
-      <c r="Y24" s="3" t="n"/>
-      <c r="Z24" s="3" t="n"/>
-      <c r="AA24" s="3" t="n"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="7" t="inlineStr">
+      <c r="B15" s="7" t="inlineStr">
         <is>
           <t>猪猪</t>
         </is>
